--- a/biology/Histoire de la zoologie et de la botanique/John_Xantus_de_Vesey/John_Xantus_de_Vesey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Xantus_de_Vesey/John_Xantus_de_Vesey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">János Xántus de Csíktaploca, également connu sous le nom de John Xantus de Vesey, né le 5 octobre 1825 à Csokonya et mort le 13 décembre 1894 à Budapest est un zoologiste et ethnologue hongrois naturalisé américain. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Juriste de formation, János Xántus, qui ajoutera par coquetterie le titre aristocratique de Vesey, sert comme officier dans l'armée hongroise durant la guerre d'indépendance de 1848. Capturé en 1849, il est exilé à Prague. Là, sans doute sous l'influence de sa mère, il rejoint un groupe d'émigré. Il est arrêté de nouveau et est enrôlé dans l'armée autrichienne ; il s'enfuit et part aux États-Unis via la Grande-Bretagne. Il arrive aux États-Unis en 1850 avec 7 dollars en poche.
 En Amérique, il occupe divers emplois à La Nouvelle-Orléans, comme libraire, droguiste, enseignant et, finalement, employé dans les services médicaux de l'armée américaine. C'est à Fort Riley, au Kansas, qu'il rencontre le chirurgien William Alexander Hammond (1828-1900) qui récolte des spécimens pour le zoologiste Spencer Fullerton Baird (1823-1887). Travaillant comme l'assistant du Dr Hammond, il commence à s'intéresser à l'histoire naturelle et devient lui-même collectionneur. Il fait ainsi parvenir à la Smithsonian Institution 300 serpents, 200 lézards, 700 poissons et 40 caisses de végétaux. Pour le remercier de son activité, il est fait membre de l'Académie des sciences naturelles de Philadelphie.
@@ -550,7 +564,9 @@
           <t>Honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'astéroïde (145593) Xántus est nommé en son honneur.
 </t>
